--- a/data/pca/factorExposure/factorExposure_2011-10-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01361891050283537</v>
+        <v>-0.01445120951364587</v>
       </c>
       <c r="C2">
-        <v>-0.03132936874324622</v>
+        <v>-0.0001629695100131765</v>
       </c>
       <c r="D2">
-        <v>0.01997908245636543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03181355035081393</v>
+      </c>
+      <c r="E2">
+        <v>0.0008803375520126102</v>
+      </c>
+      <c r="F2">
+        <v>0.03957193662395154</v>
+      </c>
+      <c r="G2">
+        <v>-0.01281153090281944</v>
+      </c>
+      <c r="H2">
+        <v>-0.01515184255984284</v>
+      </c>
+      <c r="I2">
+        <v>-0.009861086506027305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07783429852616776</v>
+        <v>-0.0909306007119538</v>
       </c>
       <c r="C4">
-        <v>-0.05749914254188052</v>
+        <v>-0.04072862148171407</v>
       </c>
       <c r="D4">
-        <v>0.08221409380664166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07400221587373601</v>
+      </c>
+      <c r="E4">
+        <v>-0.03129887445551179</v>
+      </c>
+      <c r="F4">
+        <v>0.05330576005288451</v>
+      </c>
+      <c r="G4">
+        <v>0.02056262730810781</v>
+      </c>
+      <c r="H4">
+        <v>0.01695775050982859</v>
+      </c>
+      <c r="I4">
+        <v>0.06929295623527247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1158304853566494</v>
+        <v>-0.1265441470155617</v>
       </c>
       <c r="C6">
-        <v>-0.04684574474992398</v>
+        <v>0.005610028962510825</v>
       </c>
       <c r="D6">
-        <v>0.01049717904479874</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03583794553216212</v>
+      </c>
+      <c r="E6">
+        <v>0.02214564096484164</v>
+      </c>
+      <c r="F6">
+        <v>0.04319297687600884</v>
+      </c>
+      <c r="G6">
+        <v>0.05466741508585765</v>
+      </c>
+      <c r="H6">
+        <v>-0.1897833841811201</v>
+      </c>
+      <c r="I6">
+        <v>0.01782772101331259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.06388085544691212</v>
+        <v>-0.0679843244116506</v>
       </c>
       <c r="C7">
-        <v>-0.04274279845773996</v>
+        <v>-0.03636506545076748</v>
       </c>
       <c r="D7">
-        <v>0.03445725127133686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05204633322137397</v>
+      </c>
+      <c r="E7">
+        <v>-0.01522605288884755</v>
+      </c>
+      <c r="F7">
+        <v>0.05822221685830241</v>
+      </c>
+      <c r="G7">
+        <v>-0.01934832863671472</v>
+      </c>
+      <c r="H7">
+        <v>0.01071500990518053</v>
+      </c>
+      <c r="I7">
+        <v>0.03908913353856291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04175362783551785</v>
+        <v>-0.04301303399684916</v>
       </c>
       <c r="C8">
-        <v>0.004428670202797764</v>
+        <v>-0.02737752235377582</v>
       </c>
       <c r="D8">
-        <v>0.06368438791276695</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.00834469369208274</v>
+      </c>
+      <c r="E8">
+        <v>-0.03729074934887942</v>
+      </c>
+      <c r="F8">
+        <v>0.07129625033686003</v>
+      </c>
+      <c r="G8">
+        <v>0.04768821608267881</v>
+      </c>
+      <c r="H8">
+        <v>-0.02321155497055551</v>
+      </c>
+      <c r="I8">
+        <v>0.1177807513711103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07462626684193144</v>
+        <v>-0.0830826322583621</v>
       </c>
       <c r="C9">
-        <v>-0.04117920576118395</v>
+        <v>-0.04143423397732671</v>
       </c>
       <c r="D9">
-        <v>0.07523479851071291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.05793048963683469</v>
+      </c>
+      <c r="E9">
+        <v>-0.03132669489351829</v>
+      </c>
+      <c r="F9">
+        <v>0.04846498214374516</v>
+      </c>
+      <c r="G9">
+        <v>0.03721429377322905</v>
+      </c>
+      <c r="H9">
+        <v>0.02394717417276125</v>
+      </c>
+      <c r="I9">
+        <v>0.07552972408133812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02456601641058194</v>
+        <v>-0.0568084907500704</v>
       </c>
       <c r="C10">
-        <v>-0.02378305513129605</v>
+        <v>0.192269410505903</v>
       </c>
       <c r="D10">
-        <v>-0.1761654582866579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.04041752524579611</v>
+      </c>
+      <c r="E10">
+        <v>-0.002789248054276439</v>
+      </c>
+      <c r="F10">
+        <v>0.05819697786497176</v>
+      </c>
+      <c r="G10">
+        <v>-0.03842160311365971</v>
+      </c>
+      <c r="H10">
+        <v>-0.04949036841967841</v>
+      </c>
+      <c r="I10">
+        <v>-0.0583095623069695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.07072367772595035</v>
+        <v>-0.07357512799433422</v>
       </c>
       <c r="C11">
-        <v>-0.03527341639728981</v>
+        <v>-0.04340597832378913</v>
       </c>
       <c r="D11">
-        <v>0.05751517498122329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04645600079711337</v>
+      </c>
+      <c r="E11">
+        <v>-0.008747990038878085</v>
+      </c>
+      <c r="F11">
+        <v>0.042221480293654</v>
+      </c>
+      <c r="G11">
+        <v>0.04757755664275932</v>
+      </c>
+      <c r="H11">
+        <v>0.0582498781476122</v>
+      </c>
+      <c r="I11">
+        <v>0.06287426254151923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.06653405930962016</v>
+        <v>-0.07137934182197637</v>
       </c>
       <c r="C12">
-        <v>-0.04654588401524819</v>
+        <v>-0.02828278788459039</v>
       </c>
       <c r="D12">
-        <v>0.0446782928607599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04865928266477419</v>
+      </c>
+      <c r="E12">
+        <v>-0.01708154222813349</v>
+      </c>
+      <c r="F12">
+        <v>0.03237695229221036</v>
+      </c>
+      <c r="G12">
+        <v>0.02137458969080841</v>
+      </c>
+      <c r="H12">
+        <v>0.02376310299461629</v>
+      </c>
+      <c r="I12">
+        <v>0.08339558398525845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0672977609961182</v>
+        <v>-0.06587408423677027</v>
       </c>
       <c r="C13">
-        <v>-0.04530309988675538</v>
+        <v>-0.02777678257338194</v>
       </c>
       <c r="D13">
-        <v>0.06123602768153101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04778190834017853</v>
+      </c>
+      <c r="E13">
+        <v>-0.05226639236583899</v>
+      </c>
+      <c r="F13">
+        <v>0.02703558625416915</v>
+      </c>
+      <c r="G13">
+        <v>0.004963686125518824</v>
+      </c>
+      <c r="H13">
+        <v>0.03489438352000065</v>
+      </c>
+      <c r="I13">
+        <v>0.09962365862363673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03041826715646741</v>
+        <v>-0.04131052640977723</v>
       </c>
       <c r="C14">
-        <v>-0.03112574717261009</v>
+        <v>0.001741913945348462</v>
       </c>
       <c r="D14">
-        <v>0.00221317373683333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03465989099254058</v>
+      </c>
+      <c r="E14">
+        <v>-0.02024871605267866</v>
+      </c>
+      <c r="F14">
+        <v>0.02530233798132684</v>
+      </c>
+      <c r="G14">
+        <v>0.02389320754709055</v>
+      </c>
+      <c r="H14">
+        <v>0.06674346580632819</v>
+      </c>
+      <c r="I14">
+        <v>0.05534642121656855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0454150151996486</v>
+        <v>-0.04135040604562869</v>
       </c>
       <c r="C15">
-        <v>-0.007294810793751033</v>
+        <v>-0.01449952156794864</v>
       </c>
       <c r="D15">
-        <v>0.02603921310022332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.00678736651218506</v>
+      </c>
+      <c r="E15">
+        <v>-0.03780659508829962</v>
+      </c>
+      <c r="F15">
+        <v>0.003733286854959477</v>
+      </c>
+      <c r="G15">
+        <v>0.02285081545461812</v>
+      </c>
+      <c r="H15">
+        <v>0.02201521282100107</v>
+      </c>
+      <c r="I15">
+        <v>0.03109938521296891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05963619430009401</v>
+        <v>-0.07160438740370929</v>
       </c>
       <c r="C16">
-        <v>-0.03809960156324582</v>
+        <v>-0.04073584376502017</v>
       </c>
       <c r="D16">
-        <v>0.06121547690776353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05408188694020147</v>
+      </c>
+      <c r="E16">
+        <v>-0.0174181540336089</v>
+      </c>
+      <c r="F16">
+        <v>0.03652064509261299</v>
+      </c>
+      <c r="G16">
+        <v>0.02273989439217096</v>
+      </c>
+      <c r="H16">
+        <v>0.03435344207054622</v>
+      </c>
+      <c r="I16">
+        <v>0.04019861716195448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06426300463725564</v>
+        <v>-0.06183746404330775</v>
       </c>
       <c r="C20">
-        <v>-0.01952796934194727</v>
+        <v>-0.03554718337371347</v>
       </c>
       <c r="D20">
-        <v>0.05451431566895382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02640677860701058</v>
+      </c>
+      <c r="E20">
+        <v>-0.005235650892191919</v>
+      </c>
+      <c r="F20">
+        <v>0.03143380644023724</v>
+      </c>
+      <c r="G20">
+        <v>0.01604484542311556</v>
+      </c>
+      <c r="H20">
+        <v>0.04403239556290794</v>
+      </c>
+      <c r="I20">
+        <v>0.1012658928712835</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03427292946763516</v>
+        <v>-0.02815457310039101</v>
       </c>
       <c r="C21">
-        <v>-0.005685431304593895</v>
+        <v>-0.01885205338350518</v>
       </c>
       <c r="D21">
-        <v>0.007565625157450822</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.006109304569123349</v>
+      </c>
+      <c r="E21">
+        <v>-0.03770906165749822</v>
+      </c>
+      <c r="F21">
+        <v>0.0003494842108133701</v>
+      </c>
+      <c r="G21">
+        <v>0.006919689743758669</v>
+      </c>
+      <c r="H21">
+        <v>-0.05263636186782764</v>
+      </c>
+      <c r="I21">
+        <v>0.03169042350027661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.1094226132745546</v>
+        <v>-0.09125418852513115</v>
       </c>
       <c r="C22">
-        <v>-0.02281460217674999</v>
+        <v>-0.05229230255949215</v>
       </c>
       <c r="D22">
-        <v>0.08879133165238309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01260104507274763</v>
+      </c>
+      <c r="E22">
+        <v>-0.554932058429018</v>
+      </c>
+      <c r="F22">
+        <v>0.04946824518982201</v>
+      </c>
+      <c r="G22">
+        <v>-0.2593675127848862</v>
+      </c>
+      <c r="H22">
+        <v>-0.1495784021550853</v>
+      </c>
+      <c r="I22">
+        <v>-0.2339065918290379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.1101232083655721</v>
+        <v>-0.09209373239337716</v>
       </c>
       <c r="C23">
-        <v>-0.02374338364641255</v>
+        <v>-0.05245588823319921</v>
       </c>
       <c r="D23">
-        <v>0.08887047464306205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0137374706614766</v>
+      </c>
+      <c r="E23">
+        <v>-0.5583156884026093</v>
+      </c>
+      <c r="F23">
+        <v>0.05132585827703753</v>
+      </c>
+      <c r="G23">
+        <v>-0.2538074082542001</v>
+      </c>
+      <c r="H23">
+        <v>-0.149099712869809</v>
+      </c>
+      <c r="I23">
+        <v>-0.2360672417070643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.07787312669418607</v>
+        <v>-0.08190823161607914</v>
       </c>
       <c r="C24">
-        <v>-0.04289938699177973</v>
+        <v>-0.03848415313103985</v>
       </c>
       <c r="D24">
-        <v>0.06282445449207316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05192754884981552</v>
+      </c>
+      <c r="E24">
+        <v>-0.02194163152217644</v>
+      </c>
+      <c r="F24">
+        <v>0.04444607117582766</v>
+      </c>
+      <c r="G24">
+        <v>0.03906143266467365</v>
+      </c>
+      <c r="H24">
+        <v>0.02739968710569826</v>
+      </c>
+      <c r="I24">
+        <v>0.06015252179714985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07644997686452273</v>
+        <v>-0.07880395450875632</v>
       </c>
       <c r="C25">
-        <v>-0.05056591213824437</v>
+        <v>-0.02911960194171082</v>
       </c>
       <c r="D25">
-        <v>0.05756661998394951</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05491259381174474</v>
+      </c>
+      <c r="E25">
+        <v>-0.0313142395329566</v>
+      </c>
+      <c r="F25">
+        <v>0.04070069286519595</v>
+      </c>
+      <c r="G25">
+        <v>0.04030054211259016</v>
+      </c>
+      <c r="H25">
+        <v>0.0321111265933797</v>
+      </c>
+      <c r="I25">
+        <v>0.07305464556738409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.04686177155656514</v>
+        <v>-0.04631778913671377</v>
       </c>
       <c r="C26">
-        <v>-0.007302593796804296</v>
+        <v>-0.01733825094698686</v>
       </c>
       <c r="D26">
-        <v>0.01318869272229924</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.005689600502163507</v>
+      </c>
+      <c r="E26">
+        <v>-0.04184288407336775</v>
+      </c>
+      <c r="F26">
+        <v>0.03322187225083467</v>
+      </c>
+      <c r="G26">
+        <v>0.01670567027235667</v>
+      </c>
+      <c r="H26">
+        <v>0.03696529995768808</v>
+      </c>
+      <c r="I26">
+        <v>0.01694826015669681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04513309911994457</v>
+        <v>-0.07751230746850486</v>
       </c>
       <c r="C28">
-        <v>-0.06010343213111779</v>
+        <v>0.2970408778302407</v>
       </c>
       <c r="D28">
-        <v>-0.2841579394680326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.06157927668789245</v>
+      </c>
+      <c r="E28">
+        <v>-0.01458801839276684</v>
+      </c>
+      <c r="F28">
+        <v>0.04319622036563123</v>
+      </c>
+      <c r="G28">
+        <v>0.02070215026663702</v>
+      </c>
+      <c r="H28">
+        <v>-0.0609145419785749</v>
+      </c>
+      <c r="I28">
+        <v>-0.01188548368710176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.05119521956400891</v>
+        <v>-0.05378830901540679</v>
       </c>
       <c r="C29">
-        <v>-0.04437914564180802</v>
+        <v>0.00564632565797983</v>
       </c>
       <c r="D29">
-        <v>-0.003504454631006996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03737943447351182</v>
+      </c>
+      <c r="E29">
+        <v>-0.03812378818721908</v>
+      </c>
+      <c r="F29">
+        <v>0.03789222724939533</v>
+      </c>
+      <c r="G29">
+        <v>0.008934787998533995</v>
+      </c>
+      <c r="H29">
+        <v>0.08650020839752436</v>
+      </c>
+      <c r="I29">
+        <v>0.04288099498455741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1401671956843015</v>
+        <v>-0.1300989782244562</v>
       </c>
       <c r="C30">
-        <v>-0.07606375554918973</v>
+        <v>-0.04049323734545285</v>
       </c>
       <c r="D30">
-        <v>0.09774860818761559</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07751380965693447</v>
+      </c>
+      <c r="E30">
+        <v>-0.06775570930469507</v>
+      </c>
+      <c r="F30">
+        <v>0.06432159485208143</v>
+      </c>
+      <c r="G30">
+        <v>0.05155063527288831</v>
+      </c>
+      <c r="H30">
+        <v>-0.04818155297178443</v>
+      </c>
+      <c r="I30">
+        <v>0.3060895338038615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04981964485266822</v>
+        <v>-0.04664789719032056</v>
       </c>
       <c r="C31">
-        <v>-0.02388525199084682</v>
+        <v>-0.02817117688196592</v>
       </c>
       <c r="D31">
-        <v>0.0212371366820659</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02711591178060038</v>
+      </c>
+      <c r="E31">
+        <v>-0.02588505621118101</v>
+      </c>
+      <c r="F31">
+        <v>0.0143028672569784</v>
+      </c>
+      <c r="G31">
+        <v>-0.009221171455123618</v>
+      </c>
+      <c r="H31">
+        <v>0.06275844391711603</v>
+      </c>
+      <c r="I31">
+        <v>0.03074559434448162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.03747745402024077</v>
+        <v>-0.04394050224545386</v>
       </c>
       <c r="C32">
-        <v>-0.009915493599835363</v>
+        <v>0.002953583467669498</v>
       </c>
       <c r="D32">
-        <v>0.02926484019395622</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01064631975367299</v>
+      </c>
+      <c r="E32">
+        <v>-0.07533355578512499</v>
+      </c>
+      <c r="F32">
+        <v>-0.001505950207729476</v>
+      </c>
+      <c r="G32">
+        <v>0.0240694997798394</v>
+      </c>
+      <c r="H32">
+        <v>-0.01859821799802781</v>
+      </c>
+      <c r="I32">
+        <v>-0.01596639364375859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.09245841144902907</v>
+        <v>-0.09564800809357658</v>
       </c>
       <c r="C33">
-        <v>-0.04298497193450284</v>
+        <v>-0.03505910477717551</v>
       </c>
       <c r="D33">
-        <v>0.04396408955513721</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04444071610655192</v>
+      </c>
+      <c r="E33">
+        <v>-0.02667514670604498</v>
+      </c>
+      <c r="F33">
+        <v>0.005267043269343832</v>
+      </c>
+      <c r="G33">
+        <v>-0.0007197231570131804</v>
+      </c>
+      <c r="H33">
+        <v>0.05627609167471227</v>
+      </c>
+      <c r="I33">
+        <v>0.07376299614138841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.06082948095644465</v>
+        <v>-0.06819943600743156</v>
       </c>
       <c r="C34">
-        <v>-0.02088220566299784</v>
+        <v>-0.03589497295076591</v>
       </c>
       <c r="D34">
-        <v>0.05583206365641274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03307492795362737</v>
+      </c>
+      <c r="E34">
+        <v>-0.02170833639852472</v>
+      </c>
+      <c r="F34">
+        <v>0.0276174423596408</v>
+      </c>
+      <c r="G34">
+        <v>0.0231391661350021</v>
+      </c>
+      <c r="H34">
+        <v>0.04658192853751831</v>
+      </c>
+      <c r="I34">
+        <v>0.05049783060910942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.0375536244479243</v>
+        <v>-0.03721733543430889</v>
       </c>
       <c r="C35">
-        <v>-0.01490129438024585</v>
+        <v>-0.01178930881478353</v>
       </c>
       <c r="D35">
-        <v>0.01655827329533324</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01731559549713937</v>
+      </c>
+      <c r="E35">
+        <v>-0.01677170675793162</v>
+      </c>
+      <c r="F35">
+        <v>-0.009297320760140925</v>
+      </c>
+      <c r="G35">
+        <v>-0.001551539635291922</v>
+      </c>
+      <c r="H35">
+        <v>0.03213813743393951</v>
+      </c>
+      <c r="I35">
+        <v>0.04612635627371775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.03061975433132533</v>
+        <v>-0.03097217656876624</v>
       </c>
       <c r="C36">
-        <v>-0.01418654172529462</v>
+        <v>-0.01079439294257682</v>
       </c>
       <c r="D36">
-        <v>0.02024433943392778</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01473803998962308</v>
+      </c>
+      <c r="E36">
+        <v>-0.03587515916795186</v>
+      </c>
+      <c r="F36">
+        <v>0.0383763868345092</v>
+      </c>
+      <c r="G36">
+        <v>0.01256693460237471</v>
+      </c>
+      <c r="H36">
+        <v>0.03423954516967977</v>
+      </c>
+      <c r="I36">
+        <v>0.06564811069012938</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.06734788917345023</v>
+        <v>-0.05902884426045323</v>
       </c>
       <c r="C38">
-        <v>0.0005298469560789737</v>
+        <v>-0.02594311023746145</v>
       </c>
       <c r="D38">
-        <v>-0.002732854850748834</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.003819358013338403</v>
+      </c>
+      <c r="E38">
+        <v>-0.04125578483457176</v>
+      </c>
+      <c r="F38">
+        <v>0.003711342791118791</v>
+      </c>
+      <c r="G38">
+        <v>-0.01088161662884709</v>
+      </c>
+      <c r="H38">
+        <v>0.03612229065357537</v>
+      </c>
+      <c r="I38">
+        <v>0.01190748085602313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.09688067332830372</v>
+        <v>-0.1020720705052313</v>
       </c>
       <c r="C39">
-        <v>-0.05984071643139047</v>
+        <v>-0.02966333265993334</v>
       </c>
       <c r="D39">
-        <v>0.04544261957193563</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06325375200426291</v>
+      </c>
+      <c r="E39">
+        <v>-0.01543020826524621</v>
+      </c>
+      <c r="F39">
+        <v>0.02344656211872415</v>
+      </c>
+      <c r="G39">
+        <v>0.04052398355132301</v>
+      </c>
+      <c r="H39">
+        <v>0.01301603591095631</v>
+      </c>
+      <c r="I39">
+        <v>0.05467470851171224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07851195257179512</v>
+        <v>-0.05579093205614849</v>
       </c>
       <c r="C40">
-        <v>-0.01881935842303829</v>
+        <v>-0.03896976522554535</v>
       </c>
       <c r="D40">
-        <v>0.02685119556789866</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.006549414064904305</v>
+      </c>
+      <c r="E40">
+        <v>-0.06109114254122094</v>
+      </c>
+      <c r="F40">
+        <v>-0.01370228169630787</v>
+      </c>
+      <c r="G40">
+        <v>0.03625457867913314</v>
+      </c>
+      <c r="H40">
+        <v>-0.04476322422046243</v>
+      </c>
+      <c r="I40">
+        <v>0.2450423322106329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.05175129009916589</v>
+        <v>-0.04844627064931524</v>
       </c>
       <c r="C41">
-        <v>-0.009330169356358574</v>
+        <v>-0.03105739466627993</v>
       </c>
       <c r="D41">
-        <v>0.03150936082729427</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01387947516600349</v>
+      </c>
+      <c r="E41">
+        <v>0.002602063628919978</v>
+      </c>
+      <c r="F41">
+        <v>-0.009569101925321765</v>
+      </c>
+      <c r="G41">
+        <v>0.01444318750214802</v>
+      </c>
+      <c r="H41">
+        <v>0.04071303255521776</v>
+      </c>
+      <c r="I41">
+        <v>0.03066959427323769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.05797004062793699</v>
+        <v>-0.06203089620477831</v>
       </c>
       <c r="C43">
-        <v>-0.0285395648043311</v>
+        <v>-0.02062854661537326</v>
       </c>
       <c r="D43">
-        <v>0.009676491682836345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03033114387171303</v>
+      </c>
+      <c r="E43">
+        <v>-0.01780484680967226</v>
+      </c>
+      <c r="F43">
+        <v>0.02216583564971516</v>
+      </c>
+      <c r="G43">
+        <v>-0.01135977525313653</v>
+      </c>
+      <c r="H43">
+        <v>0.05686448819079919</v>
+      </c>
+      <c r="I43">
+        <v>0.002959004594132693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.09717411263363139</v>
+        <v>-0.09365472943047826</v>
       </c>
       <c r="C44">
-        <v>-0.009513955912055578</v>
+        <v>-0.04907127882113541</v>
       </c>
       <c r="D44">
-        <v>0.05602894741792084</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.01911081338004983</v>
+      </c>
+      <c r="E44">
+        <v>-0.07683387149293257</v>
+      </c>
+      <c r="F44">
+        <v>0.1000210602155719</v>
+      </c>
+      <c r="G44">
+        <v>0.055139986765686</v>
+      </c>
+      <c r="H44">
+        <v>0.0581621207662095</v>
+      </c>
+      <c r="I44">
+        <v>0.1210006136771486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02791794313524338</v>
+        <v>-0.03984857481172892</v>
       </c>
       <c r="C46">
-        <v>-0.02246543843307717</v>
+        <v>-0.0215702838138646</v>
       </c>
       <c r="D46">
-        <v>0.03102948198101896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03653550598300254</v>
+      </c>
+      <c r="E46">
+        <v>-0.03057697971625464</v>
+      </c>
+      <c r="F46">
+        <v>0.02778463702269024</v>
+      </c>
+      <c r="G46">
+        <v>-0.005664252851736106</v>
+      </c>
+      <c r="H46">
+        <v>0.02750204276725895</v>
+      </c>
+      <c r="I46">
+        <v>0.01336767420497778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.0380561735128719</v>
+        <v>-0.04591190193825379</v>
       </c>
       <c r="C47">
-        <v>-0.02287274477411984</v>
+        <v>0.0007876517476599474</v>
       </c>
       <c r="D47">
-        <v>-0.00489303529430148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02032809877960589</v>
+      </c>
+      <c r="E47">
+        <v>-0.04356253714918592</v>
+      </c>
+      <c r="F47">
+        <v>0.004059981810532672</v>
+      </c>
+      <c r="G47">
+        <v>-0.03064836571034443</v>
+      </c>
+      <c r="H47">
+        <v>0.02560099641214238</v>
+      </c>
+      <c r="I47">
+        <v>0.0412111782060382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.04279309010066724</v>
+        <v>-0.04209831298028784</v>
       </c>
       <c r="C48">
-        <v>-0.02133669855897962</v>
+        <v>-0.01251044564343004</v>
       </c>
       <c r="D48">
-        <v>0.02913081995385707</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01751598524113286</v>
+      </c>
+      <c r="E48">
+        <v>-0.04904735417628438</v>
+      </c>
+      <c r="F48">
+        <v>0.01412202002403705</v>
+      </c>
+      <c r="G48">
+        <v>0.006498660919411673</v>
+      </c>
+      <c r="H48">
+        <v>0.0118296019466257</v>
+      </c>
+      <c r="I48">
+        <v>0.04747834730701425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1660814401506607</v>
+        <v>-0.2018231188132393</v>
       </c>
       <c r="C49">
-        <v>-0.04067798034418545</v>
+        <v>-0.01247566035745819</v>
       </c>
       <c r="D49">
-        <v>0.02224872997747862</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.04844665930503151</v>
+      </c>
+      <c r="E49">
+        <v>0.216477496314961</v>
+      </c>
+      <c r="F49">
+        <v>-0.01533794914252966</v>
+      </c>
+      <c r="G49">
+        <v>-0.1177885217002013</v>
+      </c>
+      <c r="H49">
+        <v>-0.2186404026067614</v>
+      </c>
+      <c r="I49">
+        <v>-0.07697997164042973</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04961996940761022</v>
+        <v>-0.05047469717109199</v>
       </c>
       <c r="C50">
-        <v>-0.03399028930147972</v>
+        <v>-0.02292797876127971</v>
       </c>
       <c r="D50">
-        <v>0.03432823628599171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03899412909179405</v>
+      </c>
+      <c r="E50">
+        <v>-0.02987098703095036</v>
+      </c>
+      <c r="F50">
+        <v>0.01232096757561289</v>
+      </c>
+      <c r="G50">
+        <v>0.004478263626992334</v>
+      </c>
+      <c r="H50">
+        <v>0.06470560144834561</v>
+      </c>
+      <c r="I50">
+        <v>0.02818660094399793</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.0272336035157896</v>
+        <v>-0.03511890826078813</v>
       </c>
       <c r="C51">
-        <v>0.002351588153400888</v>
+        <v>0.003606792644833165</v>
       </c>
       <c r="D51">
-        <v>-0.01023763059924784</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.007834070811188315</v>
+      </c>
+      <c r="E51">
+        <v>0.01158434069520623</v>
+      </c>
+      <c r="F51">
+        <v>0.01088974315870771</v>
+      </c>
+      <c r="G51">
+        <v>-0.01937313685679983</v>
+      </c>
+      <c r="H51">
+        <v>-0.01885789699934423</v>
+      </c>
+      <c r="I51">
+        <v>-0.01697659656916905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1582775749303268</v>
+        <v>-0.1608805088420329</v>
       </c>
       <c r="C53">
-        <v>-0.07584323609252054</v>
+        <v>0.002428994056300016</v>
       </c>
       <c r="D53">
-        <v>-0.01377583607258826</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05697454660825552</v>
+      </c>
+      <c r="E53">
+        <v>0.02878607991878305</v>
+      </c>
+      <c r="F53">
+        <v>-0.004442991691467278</v>
+      </c>
+      <c r="G53">
+        <v>-0.006890373120216941</v>
+      </c>
+      <c r="H53">
+        <v>0.2066905807683756</v>
+      </c>
+      <c r="I53">
+        <v>-0.1075842330167174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.06271212331189518</v>
+        <v>-0.0614208487525473</v>
       </c>
       <c r="C54">
-        <v>-0.02077847041457974</v>
+        <v>-0.002392859858818388</v>
       </c>
       <c r="D54">
-        <v>0.01901018547439689</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01758196432465046</v>
+      </c>
+      <c r="E54">
+        <v>-0.06693727717222711</v>
+      </c>
+      <c r="F54">
+        <v>0.03574682499809875</v>
+      </c>
+      <c r="G54">
+        <v>0.04413209923038627</v>
+      </c>
+      <c r="H54">
+        <v>0.04169340515962083</v>
+      </c>
+      <c r="I54">
+        <v>0.1229325333621213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1015005124544433</v>
+        <v>-0.1009299167309829</v>
       </c>
       <c r="C55">
-        <v>-0.04733508135527449</v>
+        <v>-0.01311459571705324</v>
       </c>
       <c r="D55">
-        <v>0.01161083132206584</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04028791966638639</v>
+      </c>
+      <c r="E55">
+        <v>0.002778636946685389</v>
+      </c>
+      <c r="F55">
+        <v>0.02112016494254024</v>
+      </c>
+      <c r="G55">
+        <v>0.02020522294445612</v>
+      </c>
+      <c r="H55">
+        <v>0.1587672517668492</v>
+      </c>
+      <c r="I55">
+        <v>-0.02767956578730239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1467805835284731</v>
+        <v>-0.1517047149486966</v>
       </c>
       <c r="C56">
-        <v>-0.09157034200108646</v>
+        <v>-0.008335584339572209</v>
       </c>
       <c r="D56">
-        <v>-0.00814989717579764</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.07542721367728035</v>
+      </c>
+      <c r="E56">
+        <v>0.01369651446362595</v>
+      </c>
+      <c r="F56">
+        <v>0.01509894873404157</v>
+      </c>
+      <c r="G56">
+        <v>0.02035089161755394</v>
+      </c>
+      <c r="H56">
+        <v>0.1955726810691586</v>
+      </c>
+      <c r="I56">
+        <v>-0.1203314889814162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.119316307494367</v>
+        <v>-0.0875166100531707</v>
       </c>
       <c r="C58">
-        <v>0.04604122267010727</v>
+        <v>-0.0619851877167082</v>
       </c>
       <c r="D58">
-        <v>0.05568465425482007</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06063245295174181</v>
+      </c>
+      <c r="E58">
+        <v>-0.1133789345199672</v>
+      </c>
+      <c r="F58">
+        <v>0.05025185499156314</v>
+      </c>
+      <c r="G58">
+        <v>-0.1143369200014787</v>
+      </c>
+      <c r="H58">
+        <v>-0.1758613508928941</v>
+      </c>
+      <c r="I58">
+        <v>0.5470524938778214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1266586782387751</v>
+        <v>-0.1537416876769291</v>
       </c>
       <c r="C59">
-        <v>-0.07611876699637789</v>
+        <v>0.3568395408408486</v>
       </c>
       <c r="D59">
-        <v>-0.4363404003556519</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.09295740962217755</v>
+      </c>
+      <c r="E59">
+        <v>0.001610670377730669</v>
+      </c>
+      <c r="F59">
+        <v>0.005608720061115663</v>
+      </c>
+      <c r="G59">
+        <v>0.01221351064978691</v>
+      </c>
+      <c r="H59">
+        <v>0.02487538493364078</v>
+      </c>
+      <c r="I59">
+        <v>-0.04602775354763662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2121402744133353</v>
+        <v>-0.239982560192214</v>
       </c>
       <c r="C60">
-        <v>-0.08049097560635156</v>
+        <v>-0.01370515216778673</v>
       </c>
       <c r="D60">
-        <v>0.002342018716487728</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.07274667673703099</v>
+      </c>
+      <c r="E60">
+        <v>0.1480978396137296</v>
+      </c>
+      <c r="F60">
+        <v>0.02094027845828451</v>
+      </c>
+      <c r="G60">
+        <v>0.002798538187135644</v>
+      </c>
+      <c r="H60">
+        <v>-0.1490860137688174</v>
+      </c>
+      <c r="I60">
+        <v>-0.1145717365243567</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.07941816198697561</v>
+        <v>-0.08623700586606989</v>
       </c>
       <c r="C61">
-        <v>-0.04796069647356992</v>
+        <v>-0.02044293858316815</v>
       </c>
       <c r="D61">
-        <v>0.02633327785412281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05148342518297871</v>
+      </c>
+      <c r="E61">
+        <v>-0.0140474209308755</v>
+      </c>
+      <c r="F61">
+        <v>0.02780194380191207</v>
+      </c>
+      <c r="G61">
+        <v>0.04094906491328799</v>
+      </c>
+      <c r="H61">
+        <v>0.06879030165555958</v>
+      </c>
+      <c r="I61">
+        <v>0.02936944497582825</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.1376658241387697</v>
+        <v>-0.1428516434433008</v>
       </c>
       <c r="C62">
-        <v>-0.05200232067276447</v>
+        <v>-0.0232094672938647</v>
       </c>
       <c r="D62">
-        <v>-0.004828103003940718</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04493185998183671</v>
+      </c>
+      <c r="E62">
+        <v>0.04219207167596586</v>
+      </c>
+      <c r="F62">
+        <v>-0.032597999927586</v>
+      </c>
+      <c r="G62">
+        <v>0.05083149533017629</v>
+      </c>
+      <c r="H62">
+        <v>0.1949758861270438</v>
+      </c>
+      <c r="I62">
+        <v>-0.1176521178889248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05800772789688562</v>
+        <v>-0.05228329086592894</v>
       </c>
       <c r="C63">
-        <v>-0.01748365084070784</v>
+        <v>-0.01494194989174476</v>
       </c>
       <c r="D63">
-        <v>0.02182108789915301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01686310952545076</v>
+      </c>
+      <c r="E63">
+        <v>-0.02709980019452918</v>
+      </c>
+      <c r="F63">
+        <v>0.01029322006994458</v>
+      </c>
+      <c r="G63">
+        <v>0.04690188850293999</v>
+      </c>
+      <c r="H63">
+        <v>0.03468532853020995</v>
+      </c>
+      <c r="I63">
+        <v>0.03409414133969778</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1072940487340399</v>
+        <v>-0.1120646697115771</v>
       </c>
       <c r="C64">
-        <v>-0.03197760947052725</v>
+        <v>-0.00968614820073827</v>
       </c>
       <c r="D64">
-        <v>0.01395419644011264</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0292141502137942</v>
+      </c>
+      <c r="E64">
+        <v>-0.03148292545287284</v>
+      </c>
+      <c r="F64">
+        <v>0.0595668526582382</v>
+      </c>
+      <c r="G64">
+        <v>0.04613169321728475</v>
+      </c>
+      <c r="H64">
+        <v>0.01000534945420486</v>
+      </c>
+      <c r="I64">
+        <v>0.05173091972493114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.1284145580792886</v>
+        <v>-0.1339019119998364</v>
       </c>
       <c r="C65">
-        <v>-0.04568646320163978</v>
+        <v>0.006837931454960321</v>
       </c>
       <c r="D65">
-        <v>0.02358214265889482</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03828774905941382</v>
+      </c>
+      <c r="E65">
+        <v>0.004097000605315202</v>
+      </c>
+      <c r="F65">
+        <v>0.02825900584940837</v>
+      </c>
+      <c r="G65">
+        <v>0.09145849388424346</v>
+      </c>
+      <c r="H65">
+        <v>-0.2066418726131161</v>
+      </c>
+      <c r="I65">
+        <v>0.05940478999814879</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1538187227068691</v>
+        <v>-0.1483085181042616</v>
       </c>
       <c r="C66">
-        <v>-0.08106714697487633</v>
+        <v>-0.06924436163320677</v>
       </c>
       <c r="D66">
-        <v>0.08360865752430124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09359450128997147</v>
+      </c>
+      <c r="E66">
+        <v>0.005445013475901361</v>
+      </c>
+      <c r="F66">
+        <v>0.01191680133789449</v>
+      </c>
+      <c r="G66">
+        <v>0.07830500276973419</v>
+      </c>
+      <c r="H66">
+        <v>0.0767495209360038</v>
+      </c>
+      <c r="I66">
+        <v>0.1005721496413644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0938364912493368</v>
+        <v>-0.09721726038291813</v>
       </c>
       <c r="C67">
-        <v>-0.004514589163972337</v>
+        <v>-0.03216857686170611</v>
       </c>
       <c r="D67">
-        <v>0.003820806660779951</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.007713842753459653</v>
+      </c>
+      <c r="E67">
+        <v>-0.002114271302954485</v>
+      </c>
+      <c r="F67">
+        <v>0.009795546637153645</v>
+      </c>
+      <c r="G67">
+        <v>-0.02279402967832508</v>
+      </c>
+      <c r="H67">
+        <v>0.02956544667639517</v>
+      </c>
+      <c r="I67">
+        <v>-0.02250483299787579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04793304605312906</v>
+        <v>-0.06829342410840962</v>
       </c>
       <c r="C68">
-        <v>-0.04308327183261111</v>
+        <v>0.275090895968492</v>
       </c>
       <c r="D68">
-        <v>-0.25677996284579</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.06727881554295068</v>
+      </c>
+      <c r="E68">
+        <v>-0.03493535188509361</v>
+      </c>
+      <c r="F68">
+        <v>0.02195743081442568</v>
+      </c>
+      <c r="G68">
+        <v>-0.003887036630302374</v>
+      </c>
+      <c r="H68">
+        <v>0.01817600824595879</v>
+      </c>
+      <c r="I68">
+        <v>0.01751428201231647</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06242472660613887</v>
+        <v>-0.05561299245743959</v>
       </c>
       <c r="C69">
-        <v>-0.02205946228408794</v>
+        <v>-0.01474968130150679</v>
       </c>
       <c r="D69">
-        <v>0.01532895257630718</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01400497513984874</v>
+      </c>
+      <c r="E69">
+        <v>-0.02973226112121456</v>
+      </c>
+      <c r="F69">
+        <v>-0.009021010617769042</v>
+      </c>
+      <c r="G69">
+        <v>0.0004328863967366723</v>
+      </c>
+      <c r="H69">
+        <v>0.04108926738483859</v>
+      </c>
+      <c r="I69">
+        <v>0.01249815406287939</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.009755807247471663</v>
+        <v>-0.03235540215877157</v>
       </c>
       <c r="C70">
-        <v>-0.0004188097894390914</v>
+        <v>0.003065495059503478</v>
       </c>
       <c r="D70">
-        <v>-0.01441948096528613</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.003368942181853466</v>
+      </c>
+      <c r="E70">
+        <v>0.02413190401333582</v>
+      </c>
+      <c r="F70">
+        <v>-0.002640899438726432</v>
+      </c>
+      <c r="G70">
+        <v>-0.004999898719055745</v>
+      </c>
+      <c r="H70">
+        <v>-0.02784590924550226</v>
+      </c>
+      <c r="I70">
+        <v>0.01849311108553778</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.0465156168130685</v>
+        <v>-0.07587458812025004</v>
       </c>
       <c r="C71">
-        <v>-0.03804968027430006</v>
+        <v>0.2965497241318973</v>
       </c>
       <c r="D71">
-        <v>-0.2909549902770053</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.07598813630076214</v>
+      </c>
+      <c r="E71">
+        <v>-0.02410081842789703</v>
+      </c>
+      <c r="F71">
+        <v>0.04688805663474196</v>
+      </c>
+      <c r="G71">
+        <v>-0.0005708260421721817</v>
+      </c>
+      <c r="H71">
+        <v>0.01676225027992496</v>
+      </c>
+      <c r="I71">
+        <v>0.01372738599884053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.141689545548449</v>
+        <v>-0.138301761754703</v>
       </c>
       <c r="C72">
-        <v>-0.04195658679225222</v>
+        <v>0.006679365852256726</v>
       </c>
       <c r="D72">
-        <v>-0.02308226464995091</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01210960534577015</v>
+      </c>
+      <c r="E72">
+        <v>0.007338554508959664</v>
+      </c>
+      <c r="F72">
+        <v>-0.1664831358253664</v>
+      </c>
+      <c r="G72">
+        <v>0.1114657151728932</v>
+      </c>
+      <c r="H72">
+        <v>0.02000255282576296</v>
+      </c>
+      <c r="I72">
+        <v>-0.0112667968776079</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2642772858462987</v>
+        <v>-0.2657707087174381</v>
       </c>
       <c r="C73">
-        <v>-0.06405180165759768</v>
+        <v>-0.08849164547938609</v>
       </c>
       <c r="D73">
-        <v>0.06930136675574348</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06123898105664962</v>
+      </c>
+      <c r="E73">
+        <v>0.3352910242824791</v>
+      </c>
+      <c r="F73">
+        <v>-0.001391560414855103</v>
+      </c>
+      <c r="G73">
+        <v>-0.2051090808094393</v>
+      </c>
+      <c r="H73">
+        <v>-0.3125015589691532</v>
+      </c>
+      <c r="I73">
+        <v>-0.04850888168970347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.08295381897740425</v>
+        <v>-0.09133906146044977</v>
       </c>
       <c r="C74">
-        <v>-0.07592327615747618</v>
+        <v>-0.0104608646139982</v>
       </c>
       <c r="D74">
-        <v>0.004738487247977499</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.07169636889648669</v>
+      </c>
+      <c r="E74">
+        <v>0.0006095681451438226</v>
+      </c>
+      <c r="F74">
+        <v>0.001933951392912312</v>
+      </c>
+      <c r="G74">
+        <v>-0.02692728550650945</v>
+      </c>
+      <c r="H74">
+        <v>0.1279564097668602</v>
+      </c>
+      <c r="I74">
+        <v>-0.02186510986329658</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1130690246014805</v>
+        <v>-0.1056516780460892</v>
       </c>
       <c r="C75">
-        <v>-0.04639856511817381</v>
+        <v>-0.01796636336301073</v>
       </c>
       <c r="D75">
-        <v>0.002377401471304358</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02723091847083707</v>
+      </c>
+      <c r="E75">
+        <v>-0.004727660558761958</v>
+      </c>
+      <c r="F75">
+        <v>-0.004448794791024522</v>
+      </c>
+      <c r="G75">
+        <v>-0.008808541735281682</v>
+      </c>
+      <c r="H75">
+        <v>0.1091815285883185</v>
+      </c>
+      <c r="I75">
+        <v>-0.05797711668505024</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1303717750716743</v>
+        <v>-0.135710399834283</v>
       </c>
       <c r="C76">
-        <v>-0.0703014660579445</v>
+        <v>-0.02840225112880241</v>
       </c>
       <c r="D76">
-        <v>0.02702368854682433</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07376654288538136</v>
+      </c>
+      <c r="E76">
+        <v>-0.01283512816746811</v>
+      </c>
+      <c r="F76">
+        <v>0.04001245552122387</v>
+      </c>
+      <c r="G76">
+        <v>0.01729509024992112</v>
+      </c>
+      <c r="H76">
+        <v>0.2513780333610294</v>
+      </c>
+      <c r="I76">
+        <v>-0.09885059901413359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1308435059194831</v>
+        <v>-0.102934154131316</v>
       </c>
       <c r="C77">
-        <v>0.0313927921571394</v>
+        <v>-0.05373508506158513</v>
       </c>
       <c r="D77">
-        <v>0.06708920574320568</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05174046027723577</v>
+      </c>
+      <c r="E77">
+        <v>-0.123635086010452</v>
+      </c>
+      <c r="F77">
+        <v>0.0754346602066846</v>
+      </c>
+      <c r="G77">
+        <v>0.7844320670396713</v>
+      </c>
+      <c r="H77">
+        <v>-0.2921527155875833</v>
+      </c>
+      <c r="I77">
+        <v>-0.2605962873089175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.1103120473225891</v>
+        <v>-0.1493484049928372</v>
       </c>
       <c r="C78">
-        <v>-0.0256736724061276</v>
+        <v>-0.05048016593643577</v>
       </c>
       <c r="D78">
-        <v>0.07833140607990126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05899029372028</v>
+      </c>
+      <c r="E78">
+        <v>-0.0983636233121406</v>
+      </c>
+      <c r="F78">
+        <v>0.0600139384561618</v>
+      </c>
+      <c r="G78">
+        <v>-0.004704174856192686</v>
+      </c>
+      <c r="H78">
+        <v>-0.1324497092607165</v>
+      </c>
+      <c r="I78">
+        <v>0.05491201882610226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1409222398804485</v>
+        <v>-0.1435431160015195</v>
       </c>
       <c r="C79">
-        <v>-0.05083745676126705</v>
+        <v>-0.02887653117474655</v>
       </c>
       <c r="D79">
-        <v>0.02777672726016617</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04451878527232169</v>
+      </c>
+      <c r="E79">
+        <v>0.01460563972790961</v>
+      </c>
+      <c r="F79">
+        <v>0.01863571374275771</v>
+      </c>
+      <c r="G79">
+        <v>0.02785452024991354</v>
+      </c>
+      <c r="H79">
+        <v>0.1749229263072717</v>
+      </c>
+      <c r="I79">
+        <v>-0.0792419953937912</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03502361043246539</v>
+        <v>-0.03995432753501742</v>
       </c>
       <c r="C80">
-        <v>-0.01739418440108245</v>
+        <v>-0.005234373381585119</v>
       </c>
       <c r="D80">
-        <v>0.02415644732497779</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02231708491314206</v>
+      </c>
+      <c r="E80">
+        <v>0.05272092411769361</v>
+      </c>
+      <c r="F80">
+        <v>2.011392561778572e-05</v>
+      </c>
+      <c r="G80">
+        <v>-0.01220838863375161</v>
+      </c>
+      <c r="H80">
+        <v>0.0344060455643369</v>
+      </c>
+      <c r="I80">
+        <v>0.1224234370052606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.134618955560168</v>
+        <v>-0.131712573025703</v>
       </c>
       <c r="C81">
-        <v>-0.0653860141333677</v>
+        <v>-0.00897566508428633</v>
       </c>
       <c r="D81">
-        <v>0.008864525522510108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04812163314121727</v>
+      </c>
+      <c r="E81">
+        <v>-0.001402828176385747</v>
+      </c>
+      <c r="F81">
+        <v>0.02095300506421453</v>
+      </c>
+      <c r="G81">
+        <v>-0.002704713063667511</v>
+      </c>
+      <c r="H81">
+        <v>0.1599007743419496</v>
+      </c>
+      <c r="I81">
+        <v>-0.0261048501543303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1290172320169715</v>
+        <v>-0.1289588340892487</v>
       </c>
       <c r="C82">
-        <v>-0.06138753311262983</v>
+        <v>-0.01207067549643885</v>
       </c>
       <c r="D82">
-        <v>0.01209669195344411</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.05195899783456158</v>
+      </c>
+      <c r="E82">
+        <v>0.01149885458101563</v>
+      </c>
+      <c r="F82">
+        <v>0.03377167969970823</v>
+      </c>
+      <c r="G82">
+        <v>-0.009508978217861576</v>
+      </c>
+      <c r="H82">
+        <v>0.2381015723274231</v>
+      </c>
+      <c r="I82">
+        <v>-0.1096409897352619</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06474354045354833</v>
+        <v>-0.08096965018033241</v>
       </c>
       <c r="C83">
-        <v>0.04850172684813601</v>
+        <v>-0.03246577294866784</v>
       </c>
       <c r="D83">
-        <v>-0.004997680857954535</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04628400428760574</v>
+      </c>
+      <c r="E83">
+        <v>-0.003568726054877888</v>
+      </c>
+      <c r="F83">
+        <v>0.04361826080454728</v>
+      </c>
+      <c r="G83">
+        <v>-0.07076206011030858</v>
+      </c>
+      <c r="H83">
+        <v>-0.01700077255865562</v>
+      </c>
+      <c r="I83">
+        <v>0.09867544900298357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.03688442041245195</v>
+        <v>-0.03508216868087316</v>
       </c>
       <c r="C84">
-        <v>-0.03173081059519688</v>
+        <v>-0.03096124958267181</v>
       </c>
       <c r="D84">
-        <v>0.03219414315612524</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03484252303896107</v>
+      </c>
+      <c r="E84">
+        <v>-0.03461872599040321</v>
+      </c>
+      <c r="F84">
+        <v>-0.03678621028214421</v>
+      </c>
+      <c r="G84">
+        <v>-0.0406601680411521</v>
+      </c>
+      <c r="H84">
+        <v>0.03637595790278295</v>
+      </c>
+      <c r="I84">
+        <v>0.09496407499743106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1163230657814237</v>
+        <v>-0.1203884469302513</v>
       </c>
       <c r="C85">
-        <v>-0.02909394636121895</v>
+        <v>-0.02945159642666631</v>
       </c>
       <c r="D85">
-        <v>0.0380961296114249</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03009289791889774</v>
+      </c>
+      <c r="E85">
+        <v>0.008063611798059764</v>
+      </c>
+      <c r="F85">
+        <v>0.04438015667335719</v>
+      </c>
+      <c r="G85">
+        <v>0.003472896984907821</v>
+      </c>
+      <c r="H85">
+        <v>0.1601148272977075</v>
+      </c>
+      <c r="I85">
+        <v>-0.06789525021436385</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.06058689610349998</v>
+        <v>-0.05666965132231163</v>
       </c>
       <c r="C86">
-        <v>-0.02119593893776716</v>
+        <v>-0.02910802435942407</v>
       </c>
       <c r="D86">
-        <v>0.06468629253744418</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02204539484783731</v>
+      </c>
+      <c r="E86">
+        <v>-0.02144838704908156</v>
+      </c>
+      <c r="F86">
+        <v>0.01903060091130686</v>
+      </c>
+      <c r="G86">
+        <v>-0.01973821533932416</v>
+      </c>
+      <c r="H86">
+        <v>-0.04123537097370401</v>
+      </c>
+      <c r="I86">
+        <v>-0.03298896582172875</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.1255981101540534</v>
+        <v>-0.1267031791127655</v>
       </c>
       <c r="C87">
-        <v>-0.06136219350437913</v>
+        <v>-0.05852126125409463</v>
       </c>
       <c r="D87">
-        <v>0.09341397512022856</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06383845474502735</v>
+      </c>
+      <c r="E87">
+        <v>-0.05139429208129201</v>
+      </c>
+      <c r="F87">
+        <v>0.03444134508930669</v>
+      </c>
+      <c r="G87">
+        <v>0.1600576747280639</v>
+      </c>
+      <c r="H87">
+        <v>-0.08726947699786508</v>
+      </c>
+      <c r="I87">
+        <v>-0.002834792849121721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05962086213345608</v>
+        <v>-0.06533860553591135</v>
       </c>
       <c r="C88">
-        <v>-0.02983626021613811</v>
+        <v>-0.0276408991657271</v>
       </c>
       <c r="D88">
-        <v>0.02495276476364316</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0382735805773111</v>
+      </c>
+      <c r="E88">
+        <v>0.002145056024650074</v>
+      </c>
+      <c r="F88">
+        <v>0.02320188952247557</v>
+      </c>
+      <c r="G88">
+        <v>0.008446905202667518</v>
+      </c>
+      <c r="H88">
+        <v>0.03978681451447364</v>
+      </c>
+      <c r="I88">
+        <v>0.03184151354282523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07288817110435157</v>
+        <v>-0.1171995020136044</v>
       </c>
       <c r="C89">
-        <v>-0.07321092677928423</v>
+        <v>0.3727268106353394</v>
       </c>
       <c r="D89">
-        <v>-0.319122937678767</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.06799403308324137</v>
+      </c>
+      <c r="E89">
+        <v>-0.02994717180003562</v>
+      </c>
+      <c r="F89">
+        <v>0.08977487303432581</v>
+      </c>
+      <c r="G89">
+        <v>-0.01695829293188092</v>
+      </c>
+      <c r="H89">
+        <v>0.01281594918840322</v>
+      </c>
+      <c r="I89">
+        <v>0.0823499422308426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.06415584247241943</v>
+        <v>-0.08667953962466668</v>
       </c>
       <c r="C90">
-        <v>-0.03964613427184071</v>
+        <v>0.277196007299981</v>
       </c>
       <c r="D90">
-        <v>-0.2830247423675998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.07504572027843039</v>
+      </c>
+      <c r="E90">
+        <v>-0.01771459121054914</v>
+      </c>
+      <c r="F90">
+        <v>0.03567338980896091</v>
+      </c>
+      <c r="G90">
+        <v>0.003255591550328426</v>
+      </c>
+      <c r="H90">
+        <v>-0.01221510648429895</v>
+      </c>
+      <c r="I90">
+        <v>0.0941463832419232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09785868247378436</v>
+        <v>-0.09312877917504539</v>
       </c>
       <c r="C91">
-        <v>-0.0497817689096657</v>
+        <v>-0.01898068446177238</v>
       </c>
       <c r="D91">
-        <v>0.009544602596513539</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03635345612703966</v>
+      </c>
+      <c r="E91">
+        <v>-0.001228986641954886</v>
+      </c>
+      <c r="F91">
+        <v>0.004824815299049654</v>
+      </c>
+      <c r="G91">
+        <v>-0.01834631480550521</v>
+      </c>
+      <c r="H91">
+        <v>0.07982364467380984</v>
+      </c>
+      <c r="I91">
+        <v>-0.04416495141157996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.05940382749377603</v>
+        <v>-0.08852004549656131</v>
       </c>
       <c r="C92">
-        <v>-0.06187018764128133</v>
+        <v>0.3315158942745185</v>
       </c>
       <c r="D92">
-        <v>-0.3275411444035658</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.0731982744409298</v>
+      </c>
+      <c r="E92">
+        <v>-0.0286116240596886</v>
+      </c>
+      <c r="F92">
+        <v>0.0477076464531626</v>
+      </c>
+      <c r="G92">
+        <v>-0.001163382580368968</v>
+      </c>
+      <c r="H92">
+        <v>0.02004744143507494</v>
+      </c>
+      <c r="I92">
+        <v>0.02366833446289487</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.05563598934723693</v>
+        <v>-0.08689151443486881</v>
       </c>
       <c r="C93">
-        <v>-0.05472351862161857</v>
+        <v>0.313427150128875</v>
       </c>
       <c r="D93">
-        <v>-0.3092319020754348</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0662214029581073</v>
+      </c>
+      <c r="E93">
+        <v>-0.0001898326639704267</v>
+      </c>
+      <c r="F93">
+        <v>0.02770508442596001</v>
+      </c>
+      <c r="G93">
+        <v>0.009820808495982068</v>
+      </c>
+      <c r="H93">
+        <v>-0.002374781111311546</v>
+      </c>
+      <c r="I93">
+        <v>0.008869528533493477</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1295724267786648</v>
+        <v>-0.1246503405608922</v>
       </c>
       <c r="C94">
-        <v>-0.03069674927514378</v>
+        <v>-0.0415627531718655</v>
       </c>
       <c r="D94">
-        <v>0.05137337295819877</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02582387053887047</v>
+      </c>
+      <c r="E94">
+        <v>0.002273265007173968</v>
+      </c>
+      <c r="F94">
+        <v>0.01265762100293905</v>
+      </c>
+      <c r="G94">
+        <v>-0.05633514042592726</v>
+      </c>
+      <c r="H94">
+        <v>0.1107689536449823</v>
+      </c>
+      <c r="I94">
+        <v>-0.05463674210274751</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1240166011586403</v>
+        <v>-0.133061428076812</v>
       </c>
       <c r="C95">
-        <v>-0.01354168072183643</v>
+        <v>-0.06088968688462387</v>
       </c>
       <c r="D95">
-        <v>0.07829596628644384</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.02192825227710505</v>
+      </c>
+      <c r="E95">
+        <v>-0.01947688385792207</v>
+      </c>
+      <c r="F95">
+        <v>0.04481768984199034</v>
+      </c>
+      <c r="G95">
+        <v>0.05184733095085006</v>
+      </c>
+      <c r="H95">
+        <v>-0.1231057252719336</v>
+      </c>
+      <c r="I95">
+        <v>0.05587272296060387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.2338279113824501</v>
+        <v>-0.190702632710021</v>
       </c>
       <c r="C97">
-        <v>-0.06176846618918041</v>
+        <v>0.04070246689890535</v>
       </c>
       <c r="D97">
-        <v>-0.114887846575324</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.04297359824271134</v>
+      </c>
+      <c r="E97">
+        <v>-0.1442823774779191</v>
+      </c>
+      <c r="F97">
+        <v>-0.9247455474613573</v>
+      </c>
+      <c r="G97">
+        <v>0.06203249048194891</v>
+      </c>
+      <c r="H97">
+        <v>-0.0001969608325613825</v>
+      </c>
+      <c r="I97">
+        <v>0.09174810557486157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2570606008330918</v>
+        <v>-0.2823044709024832</v>
       </c>
       <c r="C98">
-        <v>-0.07356661041918891</v>
+        <v>-0.04478046044323572</v>
       </c>
       <c r="D98">
-        <v>0.0298922513532206</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06229522744324414</v>
+      </c>
+      <c r="E98">
+        <v>0.2599427347877845</v>
+      </c>
+      <c r="F98">
+        <v>-0.03934811201363035</v>
+      </c>
+      <c r="G98">
+        <v>-0.2633395748422502</v>
+      </c>
+      <c r="H98">
+        <v>-0.2202354095706225</v>
+      </c>
+      <c r="I98">
+        <v>-0.2009737367247199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.3499738037541131</v>
+        <v>-0.2282017759972947</v>
       </c>
       <c r="C99">
-        <v>0.912336311654467</v>
+        <v>-0.2850782272010389</v>
       </c>
       <c r="D99">
-        <v>-0.08168459449356442</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.9031237815824332</v>
+      </c>
+      <c r="E99">
+        <v>0.03592207297867657</v>
+      </c>
+      <c r="F99">
+        <v>0.07416062122128135</v>
+      </c>
+      <c r="G99">
+        <v>-0.02458347812021786</v>
+      </c>
+      <c r="H99">
+        <v>0.108845019748873</v>
+      </c>
+      <c r="I99">
+        <v>-0.00746208851007381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.05127362206568916</v>
+        <v>-0.05385673752038072</v>
       </c>
       <c r="C101">
-        <v>-0.04470181915966009</v>
+        <v>0.005455701370711451</v>
       </c>
       <c r="D101">
-        <v>-0.003254377965174192</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03785748147691632</v>
+      </c>
+      <c r="E101">
+        <v>-0.03774704630118089</v>
+      </c>
+      <c r="F101">
+        <v>0.03780637569642454</v>
+      </c>
+      <c r="G101">
+        <v>0.00769450650311782</v>
+      </c>
+      <c r="H101">
+        <v>0.08523465817684509</v>
+      </c>
+      <c r="I101">
+        <v>0.04305519220257068</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
